--- a/Code/Results/Cases/Case_3_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.50109547320068</v>
+        <v>15.34689499495649</v>
       </c>
       <c r="C2">
-        <v>11.08839334600236</v>
+        <v>11.38288564936875</v>
       </c>
       <c r="D2">
-        <v>6.012197256967973</v>
+        <v>9.919769039986615</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>20.72680849867338</v>
+        <v>31.36549369557103</v>
       </c>
       <c r="G2">
-        <v>23.38168754254134</v>
+        <v>31.55481353683188</v>
       </c>
       <c r="H2">
-        <v>8.965483107789247</v>
+        <v>15.01728774433545</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.33724493855061</v>
+        <v>10.76686407981158</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.965669114880546</v>
+        <v>11.46242400502128</v>
       </c>
       <c r="M2">
-        <v>11.93077815649237</v>
+        <v>15.9536707943452</v>
       </c>
       <c r="N2">
-        <v>12.58852386474857</v>
+        <v>18.53687835880071</v>
       </c>
       <c r="O2">
-        <v>14.82426412082667</v>
+        <v>23.22858824764555</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.25817765119698</v>
+        <v>14.95299315747572</v>
       </c>
       <c r="C3">
-        <v>10.79883185649218</v>
+        <v>11.29006046405547</v>
       </c>
       <c r="D3">
-        <v>5.957900324685995</v>
+        <v>9.929853563220792</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>20.49018894016191</v>
+        <v>31.43219209273901</v>
       </c>
       <c r="G3">
-        <v>22.85845281942885</v>
+        <v>31.59076113083892</v>
       </c>
       <c r="H3">
-        <v>8.986051017184915</v>
+        <v>15.06007942729439</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.396906963237946</v>
+        <v>10.78885455767806</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.868831392838043</v>
+        <v>11.46530572362861</v>
       </c>
       <c r="M3">
-        <v>11.42737614073548</v>
+        <v>15.87389583496579</v>
       </c>
       <c r="N3">
-        <v>12.71539172526676</v>
+        <v>18.58329588922966</v>
       </c>
       <c r="O3">
-        <v>14.73801357517399</v>
+        <v>23.29109539413584</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.44872152107455</v>
+        <v>14.70759364190124</v>
       </c>
       <c r="C4">
-        <v>10.61707629822267</v>
+        <v>11.23255469776463</v>
       </c>
       <c r="D4">
-        <v>5.92656868756044</v>
+        <v>9.937202286959449</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.36072650883284</v>
+        <v>31.48007770664595</v>
       </c>
       <c r="G4">
-        <v>22.55616194900915</v>
+        <v>31.62230380546203</v>
       </c>
       <c r="H4">
-        <v>9.004334131823173</v>
+        <v>15.08870589780151</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.4346866356896</v>
+        <v>10.8030563511736</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.810896987828047</v>
+        <v>11.46826813968228</v>
       </c>
       <c r="M4">
-        <v>11.10970055016306</v>
+        <v>15.82658155879067</v>
       </c>
       <c r="N4">
-        <v>12.79667523548525</v>
+        <v>18.61353545146029</v>
       </c>
       <c r="O4">
-        <v>14.69706538021559</v>
+        <v>23.3342955274351</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.10716098293456</v>
+        <v>14.60684485521293</v>
       </c>
       <c r="C5">
-        <v>10.54208899962214</v>
+        <v>11.20900528955855</v>
       </c>
       <c r="D5">
-        <v>5.914310339445839</v>
+        <v>9.940488376702969</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>20.31190084242959</v>
+        <v>31.50133208115517</v>
       </c>
       <c r="G5">
-        <v>22.43781773254538</v>
+        <v>31.63753414213387</v>
       </c>
       <c r="H5">
-        <v>9.01316225019035</v>
+        <v>15.10096283324634</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.45037488250441</v>
+        <v>10.80902010204168</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.787691124000725</v>
+        <v>11.46977631940609</v>
       </c>
       <c r="M5">
-        <v>10.97826503364585</v>
+        <v>15.80773354722901</v>
       </c>
       <c r="N5">
-        <v>12.83064344348234</v>
+        <v>18.62629647113368</v>
       </c>
       <c r="O5">
-        <v>14.68332026842218</v>
+        <v>23.35311017306278</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.04973673213804</v>
+        <v>14.59007487268287</v>
       </c>
       <c r="C6">
-        <v>10.52958415592517</v>
+        <v>11.20508834428785</v>
       </c>
       <c r="D6">
-        <v>5.912305749697488</v>
+        <v>9.941051645936149</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>20.30402919487447</v>
+        <v>31.50496639690443</v>
       </c>
       <c r="G6">
-        <v>22.4184608293784</v>
+        <v>31.64020648562424</v>
       </c>
       <c r="H6">
-        <v>9.014710070456964</v>
+        <v>15.10303380601407</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.452997707341698</v>
+        <v>10.81002104736634</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.783862698973452</v>
+        <v>11.47004495679645</v>
       </c>
       <c r="M6">
-        <v>10.95632634068168</v>
+        <v>15.8046303832509</v>
       </c>
       <c r="N6">
-        <v>12.83633465993665</v>
+        <v>18.62844191769997</v>
       </c>
       <c r="O6">
-        <v>14.68121316524664</v>
+        <v>23.35630736737591</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.44416256862387</v>
+        <v>14.70623773491159</v>
       </c>
       <c r="C7">
-        <v>10.61606861545492</v>
+        <v>11.23223755193976</v>
       </c>
       <c r="D7">
-        <v>5.92640129827911</v>
+        <v>9.937245423647594</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>20.36005218263788</v>
+        <v>31.48035730673907</v>
       </c>
       <c r="G7">
-        <v>22.55454623622579</v>
+        <v>31.62249959265256</v>
       </c>
       <c r="H7">
-        <v>9.004447671201293</v>
+        <v>15.08886880459472</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.434897022027189</v>
+        <v>10.80313606548549</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.810582368843068</v>
+        <v>11.46828725965184</v>
       </c>
       <c r="M7">
-        <v>11.10793572947672</v>
+        <v>15.82632559745973</v>
       </c>
       <c r="N7">
-        <v>12.79712993167034</v>
+        <v>18.61370577581673</v>
       </c>
       <c r="O7">
-        <v>14.69686820615081</v>
+        <v>23.33454437075061</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.08211167881833</v>
+        <v>15.21189694672295</v>
       </c>
       <c r="C8">
-        <v>10.98941927430459</v>
+        <v>11.35099336676615</v>
       </c>
       <c r="D8">
-        <v>5.993062359320594</v>
+        <v>9.923006427168591</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>20.64191315564682</v>
+        <v>31.38705097919825</v>
       </c>
       <c r="G8">
-        <v>23.19738523117873</v>
+        <v>31.56523998367903</v>
       </c>
       <c r="H8">
-        <v>8.971374651211582</v>
+        <v>15.0315540826145</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.357581002736305</v>
+        <v>10.77430150468183</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.931975009647161</v>
+        <v>11.46317060743357</v>
       </c>
       <c r="M8">
-        <v>11.75908698983008</v>
+        <v>15.92582649429184</v>
       </c>
       <c r="N8">
-        <v>12.63156064725284</v>
+        <v>18.55252270977815</v>
       </c>
       <c r="O8">
-        <v>14.79198692280839</v>
+        <v>23.24913911311352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.92940740469914</v>
+        <v>16.16945738961407</v>
       </c>
       <c r="C9">
-        <v>11.68704161094051</v>
+        <v>11.57925032548489</v>
       </c>
       <c r="D9">
-        <v>6.139453657728229</v>
+        <v>9.904237819485367</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>21.32172528463586</v>
+        <v>31.25918793201898</v>
       </c>
       <c r="G9">
-        <v>24.60465228877467</v>
+        <v>31.52826692893303</v>
       </c>
       <c r="H9">
-        <v>8.953377998862226</v>
+        <v>14.93782636347904</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.214860744598615</v>
+        <v>10.72328481128765</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.181240150043344</v>
+        <v>11.46255899591854</v>
       </c>
       <c r="M9">
-        <v>12.96117149331929</v>
+        <v>16.13356567781354</v>
       </c>
       <c r="N9">
-        <v>12.33410577231925</v>
+        <v>18.44630229293928</v>
       </c>
       <c r="O9">
-        <v>15.07700180036844</v>
+        <v>23.11998837694161</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.80268199702005</v>
+        <v>16.84489489701926</v>
       </c>
       <c r="C10">
-        <v>12.17484291921811</v>
+        <v>11.7433767492065</v>
       </c>
       <c r="D10">
-        <v>6.256172401727072</v>
+        <v>9.895994930359512</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>21.90000310448794</v>
+        <v>31.19896414420071</v>
       </c>
       <c r="G10">
-        <v>25.72194858677992</v>
+        <v>31.54715688940209</v>
       </c>
       <c r="H10">
-        <v>8.971470715148131</v>
+        <v>14.8803471170599</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.115129510985814</v>
+        <v>10.68914055296026</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.37002554359458</v>
+        <v>11.46779267895881</v>
       </c>
       <c r="M10">
-        <v>13.79123412643385</v>
+        <v>16.29303209399178</v>
       </c>
       <c r="N10">
-        <v>12.13273695375763</v>
+        <v>18.37659660992945</v>
       </c>
       <c r="O10">
-        <v>15.35034944766749</v>
+        <v>23.0485693534891</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.6082203681106</v>
+        <v>17.1447004114751</v>
       </c>
       <c r="C11">
-        <v>12.39071717250954</v>
+        <v>11.81710778690536</v>
       </c>
       <c r="D11">
-        <v>6.311166490465197</v>
+        <v>9.893441372831779</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>22.18028041773701</v>
+        <v>31.17890504191723</v>
       </c>
       <c r="G11">
-        <v>26.24694001154997</v>
+        <v>31.56575011901681</v>
       </c>
       <c r="H11">
-        <v>8.987092688337468</v>
+        <v>14.85667033760897</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.070803738307523</v>
+        <v>10.67432534770487</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.456887073331095</v>
+        <v>11.47139349137345</v>
       </c>
       <c r="M11">
-        <v>14.15611734061313</v>
+        <v>16.36687349301654</v>
       </c>
       <c r="N11">
-        <v>12.04501121467424</v>
+        <v>18.34668429858097</v>
       </c>
       <c r="O11">
-        <v>15.48928793776198</v>
+        <v>23.02119317898249</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.90661848286945</v>
+        <v>17.2570550998593</v>
       </c>
       <c r="C12">
-        <v>12.47154798262275</v>
+        <v>11.84488077517164</v>
       </c>
       <c r="D12">
-        <v>6.332255612863162</v>
+        <v>9.892645662164345</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>22.28888475023465</v>
+        <v>31.17236477870606</v>
       </c>
       <c r="G12">
-        <v>26.44802881207455</v>
+        <v>31.57422620802778</v>
       </c>
       <c r="H12">
-        <v>8.994119652052426</v>
+        <v>14.84805989123994</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.054162846021403</v>
+        <v>10.66881783424334</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.489900229140043</v>
+        <v>11.47293113400119</v>
       </c>
       <c r="M12">
-        <v>14.29238230007996</v>
+        <v>16.39500566107522</v>
       </c>
       <c r="N12">
-        <v>12.01236479844786</v>
+        <v>18.33561490177897</v>
       </c>
       <c r="O12">
-        <v>15.54404648589145</v>
+        <v>23.01156291595801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.84264749420869</v>
+        <v>17.23291132057576</v>
       </c>
       <c r="C13">
-        <v>12.45418108778137</v>
+        <v>11.83890613141426</v>
       </c>
       <c r="D13">
-        <v>6.327702092715522</v>
+        <v>9.892809427867773</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>22.26538519398864</v>
+        <v>31.1737263848848</v>
       </c>
       <c r="G13">
-        <v>26.40462090838614</v>
+        <v>31.57233695897906</v>
       </c>
       <c r="H13">
-        <v>8.99255607737855</v>
+        <v>14.84989849487397</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.057740433220147</v>
+        <v>10.66999941603065</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.482785212353423</v>
+        <v>11.4725922543233</v>
       </c>
       <c r="M13">
-        <v>14.26312119386778</v>
+        <v>16.38893960318486</v>
       </c>
       <c r="N13">
-        <v>12.01937001298644</v>
+        <v>18.33798744177265</v>
       </c>
       <c r="O13">
-        <v>15.53215713610747</v>
+        <v>23.01360419088421</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.6329025087019</v>
+        <v>17.15396801036245</v>
       </c>
       <c r="C14">
-        <v>12.39738579327112</v>
+        <v>11.81939571710009</v>
       </c>
       <c r="D14">
-        <v>6.312896264836605</v>
+        <v>9.893372481212397</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.18916592640362</v>
+        <v>31.17834581122062</v>
       </c>
       <c r="G14">
-        <v>26.26343855700822</v>
+        <v>31.56641870915863</v>
       </c>
       <c r="H14">
-        <v>8.987648252974719</v>
+        <v>14.8559548268325</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.069431822719717</v>
+        <v>10.67387018588238</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.459600784237205</v>
+        <v>11.47151651297258</v>
       </c>
       <c r="M14">
-        <v>14.16736659263998</v>
+        <v>16.36918463281246</v>
       </c>
       <c r="N14">
-        <v>12.04231378480241</v>
+        <v>18.3457684508676</v>
       </c>
       <c r="O14">
-        <v>15.49374970571862</v>
+        <v>23.02038612418109</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.50356457228508</v>
+        <v>17.1054570041731</v>
       </c>
       <c r="C15">
-        <v>12.36247637099506</v>
+        <v>11.80742543818319</v>
       </c>
       <c r="D15">
-        <v>6.303861388074355</v>
+        <v>9.893739648786386</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>22.14280073239426</v>
+        <v>31.18131283458814</v>
       </c>
       <c r="G15">
-        <v>26.17725454346956</v>
+        <v>31.56298041129176</v>
       </c>
       <c r="H15">
-        <v>8.984788221136855</v>
+        <v>14.85971079697433</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.076611760255274</v>
+        <v>10.67625450335493</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.445414756874159</v>
+        <v>11.47088022155038</v>
       </c>
       <c r="M15">
-        <v>14.1084634892791</v>
+        <v>16.35710578344324</v>
       </c>
       <c r="N15">
-        <v>12.05644268535682</v>
+        <v>18.35056808984996</v>
       </c>
       <c r="O15">
-        <v>15.47050476637175</v>
+        <v>23.0246362032459</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.74910531035417</v>
+        <v>16.82514287007629</v>
       </c>
       <c r="C16">
-        <v>12.16060938405042</v>
+        <v>11.73853836213428</v>
       </c>
       <c r="D16">
-        <v>6.252615848693707</v>
+        <v>9.896185818970283</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.88203235148584</v>
+        <v>31.20042275832206</v>
       </c>
       <c r="G16">
-        <v>25.68796542888744</v>
+        <v>31.54614280541368</v>
       </c>
       <c r="H16">
-        <v>8.970602656355595</v>
+        <v>14.88194418151523</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.118046809584472</v>
+        <v>10.69012315478123</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.364366917934112</v>
+        <v>11.4675817936047</v>
       </c>
       <c r="M16">
-        <v>13.76712510126279</v>
+        <v>16.28823109941297</v>
       </c>
       <c r="N16">
-        <v>12.13854937513893</v>
+        <v>18.37858755442382</v>
       </c>
       <c r="O16">
-        <v>15.34156728667704</v>
+        <v>23.05046144731925</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.27437175296014</v>
+        <v>16.65119365971677</v>
       </c>
       <c r="C17">
-        <v>12.03518963258193</v>
+        <v>11.69603028024259</v>
       </c>
       <c r="D17">
-        <v>6.221658275663562</v>
+        <v>9.89799231962524</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>21.72646628240493</v>
+        <v>31.21402586698281</v>
       </c>
       <c r="G17">
-        <v>25.3920001844066</v>
+        <v>31.53837327901303</v>
       </c>
       <c r="H17">
-        <v>8.96382786819207</v>
+        <v>14.89621658155131</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.143728974010105</v>
+        <v>10.69881449271946</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.314883303198679</v>
+        <v>11.46586984983428</v>
       </c>
       <c r="M17">
-        <v>13.55440650573083</v>
+        <v>16.24629962084392</v>
       </c>
       <c r="N17">
-        <v>12.18992301698689</v>
+        <v>18.39623639145717</v>
       </c>
       <c r="O17">
-        <v>15.26624107630244</v>
+        <v>23.06761487337022</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.9969253142741</v>
+        <v>16.55044662124611</v>
       </c>
       <c r="C18">
-        <v>11.96248660834929</v>
+        <v>11.67149393029594</v>
       </c>
       <c r="D18">
-        <v>6.204031513226819</v>
+        <v>9.899144007728635</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>21.63861004525813</v>
+        <v>31.22254060203341</v>
       </c>
       <c r="G18">
-        <v>25.2233502611003</v>
+        <v>31.53484597465737</v>
       </c>
       <c r="H18">
-        <v>8.960624025099419</v>
+        <v>14.90465824680293</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.158599147035115</v>
+        <v>10.70388105216363</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.286515271192545</v>
+        <v>11.46500009991909</v>
       </c>
       <c r="M18">
-        <v>13.43086322780883</v>
+        <v>16.22230506530972</v>
       </c>
       <c r="N18">
-        <v>12.21983572944172</v>
+        <v>18.4065567319507</v>
       </c>
       <c r="O18">
-        <v>15.22428639613624</v>
+        <v>23.0779622367333</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.90223045480484</v>
+        <v>16.51621915072492</v>
       </c>
       <c r="C19">
-        <v>11.93777517931682</v>
+        <v>11.66317184603545</v>
       </c>
       <c r="D19">
-        <v>6.198094441993716</v>
+        <v>9.899553316896901</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>21.60914197598996</v>
+        <v>31.22554212655911</v>
       </c>
       <c r="G19">
-        <v>25.1665236376142</v>
+        <v>31.53381345556879</v>
       </c>
       <c r="H19">
-        <v>8.959656778182131</v>
+        <v>14.90755638725165</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.16365101080665</v>
+        <v>10.70560811448612</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.276927066560249</v>
+        <v>11.46472539401829</v>
       </c>
       <c r="M19">
-        <v>13.38883134620975</v>
+        <v>16.21420260983021</v>
       </c>
       <c r="N19">
-        <v>12.23002572014397</v>
+        <v>18.41008010261344</v>
       </c>
       <c r="O19">
-        <v>15.21031518653548</v>
+        <v>23.08154827396974</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.32536208203167</v>
+        <v>16.6697836653784</v>
       </c>
       <c r="C20">
-        <v>12.0485996177346</v>
+        <v>11.70056442267068</v>
       </c>
       <c r="D20">
-        <v>6.224935277895405</v>
+        <v>9.897788362315744</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>21.74285878940977</v>
+        <v>31.21250631354155</v>
       </c>
       <c r="G20">
-        <v>25.42334339864371</v>
+        <v>31.53910292937841</v>
       </c>
       <c r="H20">
-        <v>8.964476999278075</v>
+        <v>14.89467319024439</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.140984912033268</v>
+        <v>10.69788229893336</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.320141379758871</v>
+        <v>11.46604020541114</v>
       </c>
       <c r="M20">
-        <v>13.5771748768879</v>
+        <v>16.25075065595059</v>
       </c>
       <c r="N20">
-        <v>12.18441642938923</v>
+        <v>18.39434013644639</v>
       </c>
       <c r="O20">
-        <v>15.27411742877924</v>
+        <v>23.06573905288234</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.69468944601417</v>
+        <v>17.17718824548341</v>
       </c>
       <c r="C21">
-        <v>12.41409317427887</v>
+        <v>11.82513050436081</v>
       </c>
       <c r="D21">
-        <v>6.317238000852851</v>
+        <v>9.893202456812569</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>22.21148643112187</v>
+        <v>31.17696032023374</v>
       </c>
       <c r="G21">
-        <v>26.30484611782182</v>
+        <v>31.56811812058322</v>
       </c>
       <c r="H21">
-        <v>8.989059255865689</v>
+        <v>14.85416628791751</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.065993907365465</v>
+        <v>10.67273046370212</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.466407500697484</v>
+        <v>11.47182777043924</v>
       </c>
       <c r="M21">
-        <v>14.1955443963658</v>
+        <v>16.37498266695225</v>
       </c>
       <c r="N21">
-        <v>12.03555894490384</v>
+        <v>18.34347599006852</v>
       </c>
       <c r="O21">
-        <v>15.50497232064668</v>
+        <v>23.01837410824417</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.55094061296614</v>
+        <v>17.50191519306015</v>
       </c>
       <c r="C22">
-        <v>12.64760579135359</v>
+        <v>11.9056766409065</v>
       </c>
       <c r="D22">
-        <v>6.379098053504165</v>
+        <v>9.891203197662113</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>22.5321488402797</v>
+        <v>31.15988222677138</v>
       </c>
       <c r="G22">
-        <v>26.89423309540767</v>
+        <v>31.59544447818694</v>
       </c>
       <c r="H22">
-        <v>9.011624788098988</v>
+        <v>14.82976448734768</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.017821351044067</v>
+        <v>10.6568905970508</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.562694754375737</v>
+        <v>11.47662435979326</v>
       </c>
       <c r="M22">
-        <v>14.58853411097823</v>
+        <v>16.45715859916504</v>
       </c>
       <c r="N22">
-        <v>11.9416230635561</v>
+        <v>18.31173536899925</v>
       </c>
       <c r="O22">
-        <v>15.66837328889651</v>
+        <v>22.99171171965271</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.09746176399521</v>
+        <v>17.32926464930335</v>
       </c>
       <c r="C23">
-        <v>12.52348082432296</v>
+        <v>11.86277119912692</v>
       </c>
       <c r="D23">
-        <v>6.34594471682156</v>
+        <v>9.892179188825938</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>22.35969224434691</v>
+        <v>31.16843402359805</v>
       </c>
       <c r="G23">
-        <v>26.57848929910508</v>
+        <v>31.58009597221497</v>
       </c>
       <c r="H23">
-        <v>8.9989704838801</v>
+        <v>14.84259857827001</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.043457152460309</v>
+        <v>10.66529003328343</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.511247539582332</v>
+        <v>11.47397200039941</v>
       </c>
       <c r="M23">
-        <v>14.37983099956016</v>
+        <v>16.41321541173782</v>
       </c>
       <c r="N23">
-        <v>11.99144604908447</v>
+        <v>18.32853871991398</v>
       </c>
       <c r="O23">
-        <v>15.58000300088498</v>
+        <v>23.00554872188939</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.30232342467118</v>
+        <v>16.66138142491657</v>
       </c>
       <c r="C24">
-        <v>12.04253882085778</v>
+        <v>11.69851484076092</v>
       </c>
       <c r="D24">
-        <v>6.223453211391976</v>
+        <v>9.897880219054713</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>21.73544281283048</v>
+        <v>31.21319114155811</v>
       </c>
       <c r="G24">
-        <v>25.409168436329</v>
+        <v>31.53877012779256</v>
       </c>
       <c r="H24">
-        <v>8.964181378242046</v>
+        <v>14.89537022148768</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.142225174500187</v>
+        <v>10.69830352630965</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.31776395022838</v>
+        <v>11.4659628309983</v>
       </c>
       <c r="M24">
-        <v>13.56688517894861</v>
+        <v>16.24873799155262</v>
       </c>
       <c r="N24">
-        <v>12.18690478353866</v>
+        <v>18.39519689194049</v>
       </c>
       <c r="O24">
-        <v>15.27055232428625</v>
+        <v>23.06658559871885</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.19780364380615</v>
+        <v>15.91484765764048</v>
       </c>
       <c r="C25">
-        <v>11.50241568968537</v>
+        <v>11.51807405927755</v>
       </c>
       <c r="D25">
-        <v>6.098210768225504</v>
+        <v>9.908338589944067</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>21.12403332977857</v>
+        <v>31.28786414253409</v>
       </c>
       <c r="G25">
-        <v>24.20883688431097</v>
+        <v>31.53018592418818</v>
       </c>
       <c r="H25">
-        <v>8.952946853713341</v>
+        <v>14.96118346422204</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.252548017361614</v>
+        <v>10.73649773234713</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.112729196040184</v>
+        <v>11.46172179433042</v>
       </c>
       <c r="M25">
-        <v>12.64483586494382</v>
+        <v>16.07610215995857</v>
       </c>
       <c r="N25">
-        <v>12.41160645934903</v>
+        <v>18.47357030472904</v>
       </c>
       <c r="O25">
-        <v>14.98892516619469</v>
+        <v>23.15081250757351</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_131/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_131/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.34689499495649</v>
+        <v>18.50109547320059</v>
       </c>
       <c r="C2">
-        <v>11.38288564936875</v>
+        <v>11.08839334600259</v>
       </c>
       <c r="D2">
-        <v>9.919769039986615</v>
+        <v>6.012197256967857</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>31.36549369557103</v>
+        <v>20.72680849867335</v>
       </c>
       <c r="G2">
-        <v>31.55481353683188</v>
+        <v>23.3816875425413</v>
       </c>
       <c r="H2">
-        <v>15.01728774433545</v>
+        <v>8.965483107789238</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.76686407981158</v>
+        <v>6.337244938550676</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.46242400502128</v>
+        <v>6.965669114880465</v>
       </c>
       <c r="M2">
-        <v>15.9536707943452</v>
+        <v>11.93077815649241</v>
       </c>
       <c r="N2">
-        <v>18.53687835880071</v>
+        <v>12.58852386474857</v>
       </c>
       <c r="O2">
-        <v>23.22858824764555</v>
+        <v>14.8242641208267</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.95299315747572</v>
+        <v>17.25817765119694</v>
       </c>
       <c r="C3">
-        <v>11.29006046405547</v>
+        <v>10.79883185649252</v>
       </c>
       <c r="D3">
-        <v>9.929853563220792</v>
+        <v>5.95790032468604</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>31.43219209273901</v>
+        <v>20.490188940162</v>
       </c>
       <c r="G3">
-        <v>31.59076113083892</v>
+        <v>22.85845281942891</v>
       </c>
       <c r="H3">
-        <v>15.06007942729439</v>
+        <v>8.986051017184973</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.78885455767806</v>
+        <v>6.396906963237946</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.46530572362861</v>
+        <v>6.868831392838015</v>
       </c>
       <c r="M3">
-        <v>15.87389583496579</v>
+        <v>11.4273761407355</v>
       </c>
       <c r="N3">
-        <v>18.58329588922966</v>
+        <v>12.71539172526683</v>
       </c>
       <c r="O3">
-        <v>23.29109539413584</v>
+        <v>14.73801357517406</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.70759364190124</v>
+        <v>16.44872152107452</v>
       </c>
       <c r="C4">
-        <v>11.23255469776463</v>
+        <v>10.61707629822279</v>
       </c>
       <c r="D4">
-        <v>9.937202286959449</v>
+        <v>5.926568687560489</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>31.48007770664595</v>
+        <v>20.36072650883282</v>
       </c>
       <c r="G4">
-        <v>31.62230380546203</v>
+        <v>22.55616194900912</v>
       </c>
       <c r="H4">
-        <v>15.08870589780151</v>
+        <v>9.004334131823173</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.8030563511736</v>
+        <v>6.4346866356896</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.46826813968228</v>
+        <v>6.810896987827989</v>
       </c>
       <c r="M4">
-        <v>15.82658155879067</v>
+        <v>11.10970055016305</v>
       </c>
       <c r="N4">
-        <v>18.61353545146029</v>
+        <v>12.79667523548525</v>
       </c>
       <c r="O4">
-        <v>23.3342955274351</v>
+        <v>14.69706538021559</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.60684485521293</v>
+        <v>16.10716098293454</v>
       </c>
       <c r="C5">
-        <v>11.20900528955855</v>
+        <v>10.54208899962227</v>
       </c>
       <c r="D5">
-        <v>9.940488376702969</v>
+        <v>5.914310339445875</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.50133208115517</v>
+        <v>20.31190084242972</v>
       </c>
       <c r="G5">
-        <v>31.63753414213387</v>
+        <v>22.43781773254548</v>
       </c>
       <c r="H5">
-        <v>15.10096283324634</v>
+        <v>9.01316225019046</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.80902010204168</v>
+        <v>6.450374882504343</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.46977631940609</v>
+        <v>6.787691124000747</v>
       </c>
       <c r="M5">
-        <v>15.80773354722901</v>
+        <v>10.97826503364585</v>
       </c>
       <c r="N5">
-        <v>18.62629647113368</v>
+        <v>12.83064344348241</v>
       </c>
       <c r="O5">
-        <v>23.35311017306278</v>
+        <v>14.68332026842226</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.59007487268287</v>
+        <v>16.04973673213804</v>
       </c>
       <c r="C6">
-        <v>11.20508834428785</v>
+        <v>10.52958415592518</v>
       </c>
       <c r="D6">
-        <v>9.941051645936149</v>
+        <v>5.912305749697603</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>31.50496639690443</v>
+        <v>20.30402919487446</v>
       </c>
       <c r="G6">
-        <v>31.64020648562424</v>
+        <v>22.4184608293783</v>
       </c>
       <c r="H6">
-        <v>15.10303380601407</v>
+        <v>9.014710070456962</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.81002104736634</v>
+        <v>6.452997707341633</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.47004495679645</v>
+        <v>6.783862698973424</v>
       </c>
       <c r="M6">
-        <v>15.8046303832509</v>
+        <v>10.95632634068168</v>
       </c>
       <c r="N6">
-        <v>18.62844191769997</v>
+        <v>12.83633465993662</v>
       </c>
       <c r="O6">
-        <v>23.35630736737591</v>
+        <v>14.6812131652466</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.70623773491159</v>
+        <v>16.44416256862386</v>
       </c>
       <c r="C7">
-        <v>11.23223755193976</v>
+        <v>10.61606861545503</v>
       </c>
       <c r="D7">
-        <v>9.937245423647594</v>
+        <v>5.926401298279058</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>31.48035730673907</v>
+        <v>20.36005218263789</v>
       </c>
       <c r="G7">
-        <v>31.62249959265256</v>
+        <v>22.55454623622592</v>
       </c>
       <c r="H7">
-        <v>15.08886880459472</v>
+        <v>9.004447671201286</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.80313606548549</v>
+        <v>6.434897022027289</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.46828725965184</v>
+        <v>6.810582368843066</v>
       </c>
       <c r="M7">
-        <v>15.82632559745973</v>
+        <v>11.10793572947673</v>
       </c>
       <c r="N7">
-        <v>18.61370577581673</v>
+        <v>12.79712993167038</v>
       </c>
       <c r="O7">
-        <v>23.33454437075061</v>
+        <v>14.69686820615084</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.21189694672295</v>
+        <v>18.08211167881831</v>
       </c>
       <c r="C8">
-        <v>11.35099336676615</v>
+        <v>10.98941927430469</v>
       </c>
       <c r="D8">
-        <v>9.923006427168591</v>
+        <v>5.993062359320589</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>31.38705097919825</v>
+        <v>20.64191315564685</v>
       </c>
       <c r="G8">
-        <v>31.56523998367903</v>
+        <v>23.19738523117869</v>
       </c>
       <c r="H8">
-        <v>15.0315540826145</v>
+        <v>8.97137465121158</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.77430150468183</v>
+        <v>6.35758100273627</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.46317060743357</v>
+        <v>6.931975009647109</v>
       </c>
       <c r="M8">
-        <v>15.92582649429184</v>
+        <v>11.75908698983006</v>
       </c>
       <c r="N8">
-        <v>18.55252270977815</v>
+        <v>12.63156064725288</v>
       </c>
       <c r="O8">
-        <v>23.24913911311352</v>
+        <v>14.79198692280838</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.16945738961407</v>
+        <v>20.92940740469911</v>
       </c>
       <c r="C9">
-        <v>11.57925032548489</v>
+        <v>11.6870416109406</v>
       </c>
       <c r="D9">
-        <v>9.904237819485367</v>
+        <v>6.139453657728084</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>31.25918793201898</v>
+        <v>21.32172528463598</v>
       </c>
       <c r="G9">
-        <v>31.52826692893303</v>
+        <v>24.60465228877479</v>
       </c>
       <c r="H9">
-        <v>14.93782636347904</v>
+        <v>8.953377998862335</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.72328481128765</v>
+        <v>6.21486074459868</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.46255899591854</v>
+        <v>7.181240150043291</v>
       </c>
       <c r="M9">
-        <v>16.13356567781354</v>
+        <v>12.96117149331931</v>
       </c>
       <c r="N9">
-        <v>18.44630229293928</v>
+        <v>12.33410577231931</v>
       </c>
       <c r="O9">
-        <v>23.11998837694161</v>
+        <v>15.07700180036857</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.84489489701926</v>
+        <v>22.80268199702007</v>
       </c>
       <c r="C10">
-        <v>11.7433767492065</v>
+        <v>12.17484291921809</v>
       </c>
       <c r="D10">
-        <v>9.895994930359512</v>
+        <v>6.256172401726968</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>31.19896414420071</v>
+        <v>21.90000310448793</v>
       </c>
       <c r="G10">
-        <v>31.54715688940209</v>
+        <v>25.7219485867799</v>
       </c>
       <c r="H10">
-        <v>14.8803471170599</v>
+        <v>8.971470715148225</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.68914055296026</v>
+        <v>6.115129510985815</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.46779267895881</v>
+        <v>7.370025543594529</v>
       </c>
       <c r="M10">
-        <v>16.29303209399178</v>
+        <v>13.79123412643384</v>
       </c>
       <c r="N10">
-        <v>18.37659660992945</v>
+        <v>12.13273695375763</v>
       </c>
       <c r="O10">
-        <v>23.0485693534891</v>
+        <v>15.35034944766752</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.1447004114751</v>
+        <v>23.60822036811062</v>
       </c>
       <c r="C11">
-        <v>11.81710778690536</v>
+        <v>12.39071717250954</v>
       </c>
       <c r="D11">
-        <v>9.893441372831779</v>
+        <v>6.311166490465199</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>31.17890504191723</v>
+        <v>22.18028041773699</v>
       </c>
       <c r="G11">
-        <v>31.56575011901681</v>
+        <v>26.24694001154991</v>
       </c>
       <c r="H11">
-        <v>14.85667033760897</v>
+        <v>8.987092688337468</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.67432534770487</v>
+        <v>6.070803738307522</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.47139349137345</v>
+        <v>7.456887073331112</v>
       </c>
       <c r="M11">
-        <v>16.36687349301654</v>
+        <v>14.15611734061311</v>
       </c>
       <c r="N11">
-        <v>18.34668429858097</v>
+        <v>12.04501121467428</v>
       </c>
       <c r="O11">
-        <v>23.02119317898249</v>
+        <v>15.48928793776195</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.2570550998593</v>
+        <v>23.90661848286946</v>
       </c>
       <c r="C12">
-        <v>11.84488077517164</v>
+        <v>12.47154798262285</v>
       </c>
       <c r="D12">
-        <v>9.892645662164345</v>
+        <v>6.332255612863151</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>31.17236477870606</v>
+        <v>22.28888475023465</v>
       </c>
       <c r="G12">
-        <v>31.57422620802778</v>
+        <v>26.44802881207454</v>
       </c>
       <c r="H12">
-        <v>14.84805989123994</v>
+        <v>8.994119652052431</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.66881783424334</v>
+        <v>6.054162846021336</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.47293113400119</v>
+        <v>7.489900229139968</v>
       </c>
       <c r="M12">
-        <v>16.39500566107522</v>
+        <v>14.29238230007995</v>
       </c>
       <c r="N12">
-        <v>18.33561490177897</v>
+        <v>12.0123647984479</v>
       </c>
       <c r="O12">
-        <v>23.01156291595801</v>
+        <v>15.54404648589145</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.23291132057576</v>
+        <v>23.84264749420866</v>
       </c>
       <c r="C13">
-        <v>11.83890613141426</v>
+        <v>12.45418108778135</v>
       </c>
       <c r="D13">
-        <v>9.892809427867773</v>
+        <v>6.327702092715589</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>31.1737263848848</v>
+        <v>22.26538519398882</v>
       </c>
       <c r="G13">
-        <v>31.57233695897906</v>
+        <v>26.40462090838626</v>
       </c>
       <c r="H13">
-        <v>14.84989849487397</v>
+        <v>8.992556077378591</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.66999941603065</v>
+        <v>6.057740433220216</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.4725922543233</v>
+        <v>7.48278521235345</v>
       </c>
       <c r="M13">
-        <v>16.38893960318486</v>
+        <v>14.2631211938678</v>
       </c>
       <c r="N13">
-        <v>18.33798744177265</v>
+        <v>12.01937001298647</v>
       </c>
       <c r="O13">
-        <v>23.01360419088421</v>
+        <v>15.5321571361076</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.15396801036245</v>
+        <v>23.63290250870196</v>
       </c>
       <c r="C14">
-        <v>11.81939571710009</v>
+        <v>12.39738579327092</v>
       </c>
       <c r="D14">
-        <v>9.893372481212397</v>
+        <v>6.31289626483646</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>31.17834581122062</v>
+        <v>22.18916592640357</v>
       </c>
       <c r="G14">
-        <v>31.56641870915863</v>
+        <v>26.2634385570082</v>
       </c>
       <c r="H14">
-        <v>14.8559548268325</v>
+        <v>8.987648252974676</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.67387018588238</v>
+        <v>6.069431822719717</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.47151651297258</v>
+        <v>7.459600784237214</v>
       </c>
       <c r="M14">
-        <v>16.36918463281246</v>
+        <v>14.16736659263995</v>
       </c>
       <c r="N14">
-        <v>18.3457684508676</v>
+        <v>12.04231378480243</v>
       </c>
       <c r="O14">
-        <v>23.02038612418109</v>
+        <v>15.49374970571861</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.1054570041731</v>
+        <v>23.50356457228518</v>
       </c>
       <c r="C15">
-        <v>11.80742543818319</v>
+        <v>12.36247637099499</v>
       </c>
       <c r="D15">
-        <v>9.893739648786386</v>
+        <v>6.303861388074336</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>31.18131283458814</v>
+        <v>22.14280073239413</v>
       </c>
       <c r="G15">
-        <v>31.56298041129176</v>
+        <v>26.17725454346943</v>
       </c>
       <c r="H15">
-        <v>14.85971079697433</v>
+        <v>8.984788221136816</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.67625450335493</v>
+        <v>6.076611760255241</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.47088022155038</v>
+        <v>7.445414756874145</v>
       </c>
       <c r="M15">
-        <v>16.35710578344324</v>
+        <v>14.10846348927908</v>
       </c>
       <c r="N15">
-        <v>18.35056808984996</v>
+        <v>12.05644268535668</v>
       </c>
       <c r="O15">
-        <v>23.0246362032459</v>
+        <v>15.47050476637166</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.82514287007629</v>
+        <v>22.74910531035417</v>
       </c>
       <c r="C16">
-        <v>11.73853836213428</v>
+        <v>12.16060938405051</v>
       </c>
       <c r="D16">
-        <v>9.896185818970283</v>
+        <v>6.252615848693795</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>31.20042275832206</v>
+        <v>21.88203235148587</v>
       </c>
       <c r="G16">
-        <v>31.54614280541368</v>
+        <v>25.68796542888746</v>
       </c>
       <c r="H16">
-        <v>14.88194418151523</v>
+        <v>8.970602656355569</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.69012315478123</v>
+        <v>6.118046809584506</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.4675817936047</v>
+        <v>7.36436691793411</v>
       </c>
       <c r="M16">
-        <v>16.28823109941297</v>
+        <v>13.76712510126278</v>
       </c>
       <c r="N16">
-        <v>18.37858755442382</v>
+        <v>12.13854937513892</v>
       </c>
       <c r="O16">
-        <v>23.05046144731925</v>
+        <v>15.34156728667702</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.65119365971677</v>
+        <v>22.27437175296014</v>
       </c>
       <c r="C17">
-        <v>11.69603028024259</v>
+        <v>12.03518963258192</v>
       </c>
       <c r="D17">
-        <v>9.89799231962524</v>
+        <v>6.221658275663469</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>31.21402586698281</v>
+        <v>21.72646628240488</v>
       </c>
       <c r="G17">
-        <v>31.53837327901303</v>
+        <v>25.39200018440665</v>
       </c>
       <c r="H17">
-        <v>14.89621658155131</v>
+        <v>8.963827868192016</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.69881449271946</v>
+        <v>6.14372897401014</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.46586984983428</v>
+        <v>7.314883303198634</v>
       </c>
       <c r="M17">
-        <v>16.24629962084392</v>
+        <v>13.55440650573081</v>
       </c>
       <c r="N17">
-        <v>18.39623639145717</v>
+        <v>12.18992301698689</v>
       </c>
       <c r="O17">
-        <v>23.06761487337022</v>
+        <v>15.26624107630243</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.55044662124611</v>
+        <v>21.99692531427408</v>
       </c>
       <c r="C18">
-        <v>11.67149393029594</v>
+        <v>11.96248660834947</v>
       </c>
       <c r="D18">
-        <v>9.899144007728635</v>
+        <v>6.204031513226858</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>31.22254060203341</v>
+        <v>21.63861004525822</v>
       </c>
       <c r="G18">
-        <v>31.53484597465737</v>
+        <v>25.2233502611004</v>
       </c>
       <c r="H18">
-        <v>14.90465824680293</v>
+        <v>8.960624025099419</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.70388105216363</v>
+        <v>6.158599147035051</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.46500009991909</v>
+        <v>7.286515271192548</v>
       </c>
       <c r="M18">
-        <v>16.22230506530972</v>
+        <v>13.43086322780884</v>
       </c>
       <c r="N18">
-        <v>18.4065567319507</v>
+        <v>12.21983572944171</v>
       </c>
       <c r="O18">
-        <v>23.0779622367333</v>
+        <v>15.22428639613632</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.51621915072492</v>
+        <v>21.90223045480486</v>
       </c>
       <c r="C19">
-        <v>11.66317184603545</v>
+        <v>11.93777517931682</v>
       </c>
       <c r="D19">
-        <v>9.899553316896901</v>
+        <v>6.19809444199367</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>31.22554212655911</v>
+        <v>21.6091419759899</v>
       </c>
       <c r="G19">
-        <v>31.53381345556879</v>
+        <v>25.16652363761414</v>
       </c>
       <c r="H19">
-        <v>14.90755638725165</v>
+        <v>8.959656778182131</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.70560811448612</v>
+        <v>6.163651010806648</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.46472539401829</v>
+        <v>7.276927066560186</v>
       </c>
       <c r="M19">
-        <v>16.21420260983021</v>
+        <v>13.38883134620975</v>
       </c>
       <c r="N19">
-        <v>18.41008010261344</v>
+        <v>12.23002572014394</v>
       </c>
       <c r="O19">
-        <v>23.08154827396974</v>
+        <v>15.21031518653544</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.6697836653784</v>
+        <v>22.32536208203166</v>
       </c>
       <c r="C20">
-        <v>11.70056442267068</v>
+        <v>12.0485996177347</v>
       </c>
       <c r="D20">
-        <v>9.897788362315744</v>
+        <v>6.224935277895409</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>31.21250631354155</v>
+        <v>21.74285878940975</v>
       </c>
       <c r="G20">
-        <v>31.53910292937841</v>
+        <v>25.42334339864367</v>
       </c>
       <c r="H20">
-        <v>14.89467319024439</v>
+        <v>8.96447699927808</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.69788229893336</v>
+        <v>6.140984912033202</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.46604020541114</v>
+        <v>7.320141379758854</v>
       </c>
       <c r="M20">
-        <v>16.25075065595059</v>
+        <v>13.57717487688788</v>
       </c>
       <c r="N20">
-        <v>18.39434013644639</v>
+        <v>12.18441642938919</v>
       </c>
       <c r="O20">
-        <v>23.06573905288234</v>
+        <v>15.27411742877924</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.17718824548341</v>
+        <v>23.69468944601422</v>
       </c>
       <c r="C21">
-        <v>11.82513050436081</v>
+        <v>12.41409317427863</v>
       </c>
       <c r="D21">
-        <v>9.893202456812569</v>
+        <v>6.317238000852719</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>31.17696032023374</v>
+        <v>22.21148643112175</v>
       </c>
       <c r="G21">
-        <v>31.56811812058322</v>
+        <v>26.30484611782186</v>
       </c>
       <c r="H21">
-        <v>14.85416628791751</v>
+        <v>8.989059255865611</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.67273046370212</v>
+        <v>6.0659939073654</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.47182777043924</v>
+        <v>7.466407500697454</v>
       </c>
       <c r="M21">
-        <v>16.37498266695225</v>
+        <v>14.19554439636578</v>
       </c>
       <c r="N21">
-        <v>18.34347599006852</v>
+        <v>12.03555894490376</v>
       </c>
       <c r="O21">
-        <v>23.01837410824417</v>
+        <v>15.50497232064664</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.50191519306015</v>
+        <v>24.55094061296614</v>
       </c>
       <c r="C22">
-        <v>11.9056766409065</v>
+        <v>12.64760579135351</v>
       </c>
       <c r="D22">
-        <v>9.891203197662113</v>
+        <v>6.379098053504211</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>31.15988222677138</v>
+        <v>22.53214884027966</v>
       </c>
       <c r="G22">
-        <v>31.59544447818694</v>
+        <v>26.8942330954076</v>
       </c>
       <c r="H22">
-        <v>14.82976448734768</v>
+        <v>9.011624788099008</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.6568905970508</v>
+        <v>6.017821351043968</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.47662435979326</v>
+        <v>7.562694754375665</v>
       </c>
       <c r="M22">
-        <v>16.45715859916504</v>
+        <v>14.58853411097821</v>
       </c>
       <c r="N22">
-        <v>18.31173536899925</v>
+        <v>11.94162306355599</v>
       </c>
       <c r="O22">
-        <v>22.99171171965271</v>
+        <v>15.66837328889647</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.32926464930335</v>
+        <v>24.09746176399517</v>
       </c>
       <c r="C23">
-        <v>11.86277119912692</v>
+        <v>12.52348082432296</v>
       </c>
       <c r="D23">
-        <v>9.892179188825938</v>
+        <v>6.345944716821523</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>31.16843402359805</v>
+        <v>22.35969224434703</v>
       </c>
       <c r="G23">
-        <v>31.58009597221497</v>
+        <v>26.57848929910522</v>
       </c>
       <c r="H23">
-        <v>14.84259857827001</v>
+        <v>8.998970483880194</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.66529003328343</v>
+        <v>6.043457152460344</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.47397200039941</v>
+        <v>7.511247539582342</v>
       </c>
       <c r="M23">
-        <v>16.41321541173782</v>
+        <v>14.37983099956017</v>
       </c>
       <c r="N23">
-        <v>18.32853871991398</v>
+        <v>11.9914460490845</v>
       </c>
       <c r="O23">
-        <v>23.00554872188939</v>
+        <v>15.58000300088508</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.66138142491657</v>
+        <v>22.30232342467117</v>
       </c>
       <c r="C24">
-        <v>11.69851484076092</v>
+        <v>12.04253882085778</v>
       </c>
       <c r="D24">
-        <v>9.897880219054713</v>
+        <v>6.223453211391953</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>31.21319114155811</v>
+        <v>21.73544281283062</v>
       </c>
       <c r="G24">
-        <v>31.53877012779256</v>
+        <v>25.40916843632922</v>
       </c>
       <c r="H24">
-        <v>14.89537022148768</v>
+        <v>8.964181378242106</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.69830352630965</v>
+        <v>6.14222517450019</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.4659628309983</v>
+        <v>7.317763950228357</v>
       </c>
       <c r="M24">
-        <v>16.24873799155262</v>
+        <v>13.56688517894863</v>
       </c>
       <c r="N24">
-        <v>18.39519689194049</v>
+        <v>12.18690478353879</v>
       </c>
       <c r="O24">
-        <v>23.06658559871885</v>
+        <v>15.27055232428642</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.91484765764048</v>
+        <v>20.19780364380614</v>
       </c>
       <c r="C25">
-        <v>11.51807405927755</v>
+        <v>11.50241568968549</v>
       </c>
       <c r="D25">
-        <v>9.908338589944067</v>
+        <v>6.09821076822544</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>31.28786414253409</v>
+        <v>21.12403332977859</v>
       </c>
       <c r="G25">
-        <v>31.53018592418818</v>
+        <v>24.20883688431111</v>
       </c>
       <c r="H25">
-        <v>14.96118346422204</v>
+        <v>8.952946853713337</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.73649773234713</v>
+        <v>6.252548017361649</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.46172179433042</v>
+        <v>7.112729196040155</v>
       </c>
       <c r="M25">
-        <v>16.07610215995857</v>
+        <v>12.6448358649438</v>
       </c>
       <c r="N25">
-        <v>18.47357030472904</v>
+        <v>12.41160645934909</v>
       </c>
       <c r="O25">
-        <v>23.15081250757351</v>
+        <v>14.98892516619478</v>
       </c>
     </row>
   </sheetData>
